--- a/data copy/Motivation im Onlineunterricht(1-34) Höbert.xlsx
+++ b/data copy/Motivation im Onlineunterricht(1-34) Höbert.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Dropbox\Python\dataanalysisebert\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Dropbox\Python\dataanalysisebert\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F8AC89-B7F8-44DC-96D4-8759893CD4F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BC9F15-55E5-4133-A8D1-1A159F835634}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,9 +114,6 @@
     <t>Kreuze an, welche Vorteile der Unterricht im Klassenzimmer gegenüber dem Onlineunterricht hat.</t>
   </si>
   <si>
-    <t>Wenn du bei Frage 14 "Sonstige" angekreuzt hast, gib an, was du dabei gemeint hast.</t>
-  </si>
-  <si>
     <t>Hast du den Eindruck, dass  ältere Lehrkräfte (&gt;35 Jahre) im Allgemeinen schlechter mit der Gestaltung des  Onlineunterrichts zurecht kommen tun als jüngere Lehrkräfte? (5 Sterne= trifft voll zu)</t>
   </si>
   <si>
@@ -333,6 +330,9 @@
   </si>
   <si>
     <t>3BHIT</t>
+  </si>
+  <si>
+    <t>Wenn du bei Frage 4 "Sonstige" angekreuzt hast, gib an, was du dabei gemeint hast.</t>
   </si>
 </sst>
 </file>
@@ -340,7 +340,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -373,7 +373,7 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -478,10 +478,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -532,7 +532,7 @@
     <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="wenn andere im Onlineunterricht gelobt werden" dataDxfId="8"/>
     <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Ergänze hier Faktoren, die deine Freude am Onlineunterricht erhöhen, die bei Frage 12 nicht genannt sind." dataDxfId="7"/>
     <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Kreuze an, welche Vorteile der Unterricht im Klassenzimmer gegenüber dem Onlineunterricht hat." dataDxfId="6"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Wenn du bei Frage 14 &quot;Sonstige&quot; angekreuzt hast, gib an, was du dabei gemeint hast." dataDxfId="5"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Wenn du bei Frage 4 &quot;Sonstige&quot; angekreuzt hast, gib an, was du dabei gemeint hast." dataDxfId="5"/>
     <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="Hast du den Eindruck, dass  ältere Lehrkräfte (&gt;35 Jahre) im Allgemeinen schlechter mit der Gestaltung des  Onlineunterrichts zurecht kommen tun als jüngere Lehrkräfte? (5 Sterne= trifft voll zu)" dataDxfId="4"/>
     <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Ich fände es gut, wenn auch in Zukunft ein Teil des Unterrichts online stattfindet (5 Sterne = trifft voll zu)" dataDxfId="3"/>
     <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Kommentare" dataDxfId="2"/>
@@ -843,7 +843,7 @@
   <dimension ref="A1:AI35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AI14" sqref="AI14"/>
+      <selection activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,22 +940,22 @@
         <v>28</v>
       </c>
       <c r="AD1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="AH1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
@@ -969,20 +969,20 @@
         <v>44264.555555555598</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J2">
         <v>4</v>
@@ -1000,43 +1000,43 @@
         <v>4</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="X2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
@@ -1049,10 +1049,10 @@
       </c>
       <c r="AG2" s="3"/>
       <c r="AH2" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
@@ -1066,21 +1066,21 @@
         <v>44270.338275463</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="J3">
         <v>3</v>
       </c>
@@ -1097,47 +1097,47 @@
         <v>3</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB3" s="3"/>
       <c r="AC3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AD3" s="3"/>
       <c r="AE3">
@@ -1148,10 +1148,10 @@
       </c>
       <c r="AG3" s="3"/>
       <c r="AH3" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
@@ -1165,20 +1165,20 @@
         <v>44270.343634259298</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -1196,49 +1196,49 @@
         <v>1</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="S4" s="3" t="s">
+      <c r="U4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="T4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="AD4" s="3"/>
       <c r="AE4">
@@ -1249,10 +1249,10 @@
       </c>
       <c r="AG4" s="3"/>
       <c r="AH4" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
@@ -1266,20 +1266,20 @@
         <v>44270.344317129602</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J5">
         <v>5</v>
@@ -1297,47 +1297,47 @@
         <v>2</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="X5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB5" s="3"/>
       <c r="AC5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD5" s="3"/>
       <c r="AE5">
@@ -1348,10 +1348,10 @@
       </c>
       <c r="AG5" s="3"/>
       <c r="AH5" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI5" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
@@ -1365,20 +1365,20 @@
         <v>44270.344386574099</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J6">
         <v>3</v>
@@ -1396,47 +1396,47 @@
         <v>2</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB6" s="3"/>
       <c r="AC6" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD6" s="3"/>
       <c r="AE6">
@@ -1447,10 +1447,10 @@
       </c>
       <c r="AG6" s="3"/>
       <c r="AH6" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI6" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
@@ -1464,20 +1464,20 @@
         <v>44270.345046296301</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -1495,43 +1495,43 @@
         <v>2</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
@@ -1544,10 +1544,10 @@
       </c>
       <c r="AG7" s="3"/>
       <c r="AH7" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI7" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
@@ -1561,20 +1561,20 @@
         <v>44270.345127314802</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J8">
         <v>3</v>
@@ -1592,49 +1592,49 @@
         <v>4</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC8" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="AC8" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="AD8" s="3"/>
       <c r="AE8">
@@ -1645,10 +1645,10 @@
       </c>
       <c r="AG8" s="3"/>
       <c r="AH8" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI8" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
@@ -1662,21 +1662,21 @@
         <v>44270.346319444398</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="J9">
         <v>4</v>
       </c>
@@ -1693,47 +1693,47 @@
         <v>3</v>
       </c>
       <c r="O9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA9" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD9" s="3"/>
       <c r="AE9">
@@ -1744,10 +1744,10 @@
       </c>
       <c r="AG9" s="3"/>
       <c r="AH9" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI9" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
@@ -1761,20 +1761,20 @@
         <v>44270.347997685203</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -1792,52 +1792,52 @@
         <v>1</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="X10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AC10" s="3" t="s">
+      <c r="AD10" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="AD10" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="AE10">
         <v>3</v>
@@ -1847,10 +1847,10 @@
       </c>
       <c r="AG10" s="3"/>
       <c r="AH10" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI10" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
@@ -1864,20 +1864,20 @@
         <v>44270.3492708333</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J11">
         <v>4</v>
@@ -1895,47 +1895,47 @@
         <v>4</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD11" s="3"/>
       <c r="AE11">
@@ -1946,10 +1946,10 @@
       </c>
       <c r="AG11" s="3"/>
       <c r="AH11" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI11" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
@@ -1963,20 +1963,20 @@
         <v>44270.349722222199</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="H12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1994,49 +1994,49 @@
         <v>2</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD12" s="3"/>
       <c r="AE12">
@@ -2047,10 +2047,10 @@
       </c>
       <c r="AG12" s="3"/>
       <c r="AH12" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI12" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
@@ -2064,20 +2064,20 @@
         <v>44270.349733796298</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J13">
         <v>3</v>
@@ -2095,43 +2095,43 @@
         <v>3</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
@@ -2144,10 +2144,10 @@
       </c>
       <c r="AG13" s="3"/>
       <c r="AH13" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI13" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
@@ -2161,20 +2161,20 @@
         <v>44270.35</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -2192,49 +2192,49 @@
         <v>5</v>
       </c>
       <c r="O14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="AA14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="AB14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC14" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="AC14" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="AD14" s="3"/>
       <c r="AE14">
@@ -2244,13 +2244,13 @@
         <v>3</v>
       </c>
       <c r="AG14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AH14" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI14" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
@@ -2264,20 +2264,20 @@
         <v>44270.350127314799</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J15">
         <v>3</v>
@@ -2295,50 +2295,50 @@
         <v>4</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB15" s="3"/>
       <c r="AC15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD15" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="AD15" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="AE15">
         <v>4</v>
@@ -2348,10 +2348,10 @@
       </c>
       <c r="AG15" s="3"/>
       <c r="AH15" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI15" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
@@ -2365,20 +2365,20 @@
         <v>44270.352719907401</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -2396,47 +2396,47 @@
         <v>1</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="T16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="V16" s="3" t="s">
+      <c r="X16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="W16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="X16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y16" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="Z16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AD16" s="3"/>
       <c r="AE16">
@@ -2447,10 +2447,10 @@
       </c>
       <c r="AG16" s="3"/>
       <c r="AH16" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI16" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
@@ -2464,20 +2464,20 @@
         <v>44270.363402777803</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J17">
         <v>2</v>
@@ -2495,67 +2495,67 @@
         <v>2</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA17" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AC17" s="3" t="s">
+      <c r="AD17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AD17" s="2" t="s">
+      <c r="AE17">
+        <v>5</v>
+      </c>
+      <c r="AF17">
+        <v>4</v>
+      </c>
+      <c r="AG17" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AE17">
-        <v>5</v>
-      </c>
-      <c r="AF17">
-        <v>4</v>
-      </c>
-      <c r="AG17" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="AH17" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI17" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
@@ -2569,20 +2569,20 @@
         <v>44270.4266319444</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="H18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J18">
         <v>4</v>
@@ -2600,49 +2600,49 @@
         <v>4</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y18" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z18" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA18" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB18" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AC18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD18" s="3"/>
       <c r="AE18">
@@ -2653,10 +2653,10 @@
       </c>
       <c r="AG18" s="3"/>
       <c r="AH18" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI18" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
@@ -2670,20 +2670,20 @@
         <v>44270.426851851902</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -2701,47 +2701,47 @@
         <v>4</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y19" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z19" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA19" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AD19" s="3"/>
       <c r="AE19">
@@ -2752,10 +2752,10 @@
       </c>
       <c r="AG19" s="3"/>
       <c r="AH19" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI19" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.25">
@@ -2769,80 +2769,80 @@
         <v>44270.427662037</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="I20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>5</v>
+      </c>
+      <c r="M20">
+        <v>4</v>
+      </c>
+      <c r="N20">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB20" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="J20">
-        <v>4</v>
-      </c>
-      <c r="K20">
-        <v>4</v>
-      </c>
-      <c r="L20">
-        <v>5</v>
-      </c>
-      <c r="M20">
-        <v>4</v>
-      </c>
-      <c r="N20">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="W20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="X20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB20" s="3" t="s">
+      <c r="AC20" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="AC20" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="AD20" s="3"/>
       <c r="AE20">
@@ -2853,10 +2853,10 @@
       </c>
       <c r="AG20" s="3"/>
       <c r="AH20" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI20" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
@@ -2870,21 +2870,21 @@
         <v>44270.428055555603</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="J21">
         <v>4</v>
       </c>
@@ -2901,49 +2901,49 @@
         <v>4</v>
       </c>
       <c r="O21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R21" s="3" t="s">
+      <c r="U21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="W21" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="X21" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Y21" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z21" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA21" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AB21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC21" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="AC21" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="AD21" s="3"/>
       <c r="AE21">
@@ -2954,10 +2954,10 @@
       </c>
       <c r="AG21" s="3"/>
       <c r="AH21" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI21" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
@@ -2971,20 +2971,20 @@
         <v>44270.428078703699</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J22">
         <v>3</v>
@@ -3002,47 +3002,47 @@
         <v>2</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y22" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z22" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA22" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB22" s="3"/>
       <c r="AC22" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD22" s="3"/>
       <c r="AE22">
@@ -3053,10 +3053,10 @@
       </c>
       <c r="AG22" s="3"/>
       <c r="AH22" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI22" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.25">
@@ -3070,20 +3070,20 @@
         <v>44270.428287037001</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="H23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="I23" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J23">
         <v>5</v>
@@ -3101,49 +3101,49 @@
         <v>5</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="S23" s="3" t="s">
+      <c r="U23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="V23" s="3" t="s">
+      <c r="X23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="X23" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="Y23" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Z23" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA23" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC23" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="AC23" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="AD23" s="3"/>
       <c r="AE23">
@@ -3154,10 +3154,10 @@
       </c>
       <c r="AG23" s="3"/>
       <c r="AH23" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI23" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.25">
@@ -3171,21 +3171,21 @@
         <v>44270.428449074097</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="I24" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="J24">
         <v>3</v>
       </c>
@@ -3202,49 +3202,49 @@
         <v>3</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y24" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z24" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA24" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC24" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="AC24" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="AD24" s="3"/>
       <c r="AE24">
@@ -3255,10 +3255,10 @@
       </c>
       <c r="AG24" s="3"/>
       <c r="AH24" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI24" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.25">
@@ -3272,20 +3272,20 @@
         <v>44270.429722222201</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="I25" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -3303,49 +3303,49 @@
         <v>3</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X25" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y25" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z25" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA25" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC25" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="AC25" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="AD25" s="3"/>
       <c r="AE25">
@@ -3356,10 +3356,10 @@
       </c>
       <c r="AG25" s="3"/>
       <c r="AH25" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI25" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.25">
@@ -3373,20 +3373,20 @@
         <v>44270.429803240702</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="H26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="I26" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J26">
         <v>5</v>
@@ -3404,47 +3404,47 @@
         <v>4</v>
       </c>
       <c r="O26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P26" s="3" t="s">
+      <c r="U26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q26" s="3" t="s">
+      <c r="X26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U26" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="V26" s="3" t="s">
+      <c r="Y26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA26" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="W26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="X26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y26" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z26" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA26" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="AB26" s="3"/>
       <c r="AC26" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD26" s="3"/>
       <c r="AE26">
@@ -3455,10 +3455,10 @@
       </c>
       <c r="AG26" s="3"/>
       <c r="AH26" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI26" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.25">
@@ -3472,20 +3472,20 @@
         <v>44270.430648148104</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="H27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="I27" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J27">
         <v>3</v>
@@ -3503,67 +3503,67 @@
         <v>3</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X27" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Y27" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB27" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC27" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="AC27" s="3" t="s">
+      <c r="AD27" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AD27" s="3" t="s">
+      <c r="AE27">
+        <v>4</v>
+      </c>
+      <c r="AF27">
+        <v>5</v>
+      </c>
+      <c r="AG27" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AE27">
-        <v>4</v>
-      </c>
-      <c r="AF27">
-        <v>5</v>
-      </c>
-      <c r="AG27" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="AH27" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI27" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.25">
@@ -3577,20 +3577,20 @@
         <v>44270.431145833303</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -3608,65 +3608,65 @@
         <v>2</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U28" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W28" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X28" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y28" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z28" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA28" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB28" s="3"/>
       <c r="AC28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD28" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AD28" s="3" t="s">
+      <c r="AE28">
+        <v>4</v>
+      </c>
+      <c r="AF28">
+        <v>5</v>
+      </c>
+      <c r="AG28" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="AE28">
-        <v>4</v>
-      </c>
-      <c r="AF28">
-        <v>5</v>
-      </c>
-      <c r="AG28" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="AH28" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI28" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.25">
@@ -3680,20 +3680,20 @@
         <v>44270.4312615741</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="H29" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="I29" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J29">
         <v>5</v>
@@ -3711,47 +3711,47 @@
         <v>2</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="Y29" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z29" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA29" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB29" s="3"/>
       <c r="AC29" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD29" s="3"/>
       <c r="AE29">
@@ -3762,10 +3762,10 @@
       </c>
       <c r="AG29" s="3"/>
       <c r="AH29" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI29" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.25">
@@ -3779,20 +3779,20 @@
         <v>44270.431296296301</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="H30" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="I30" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -3810,47 +3810,47 @@
         <v>3</v>
       </c>
       <c r="O30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P30" s="3" t="s">
+      <c r="X30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q30" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="R30" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S30" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T30" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="U30" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="V30" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="W30" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="X30" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="Y30" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z30" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA30" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB30" s="3"/>
       <c r="AC30" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AD30" s="3"/>
       <c r="AE30">
@@ -3861,10 +3861,10 @@
       </c>
       <c r="AG30" s="3"/>
       <c r="AH30" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI30" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.25">
@@ -3878,20 +3878,20 @@
         <v>44270.431423611102</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="H31" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="I31" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J31">
         <v>5</v>
@@ -3909,47 +3909,47 @@
         <v>1</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X31" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q31" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="R31" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S31" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T31" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="U31" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="V31" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="W31" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="X31" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="Y31" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z31" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA31" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB31" s="3"/>
       <c r="AC31" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD31" s="3"/>
       <c r="AE31">
@@ -3959,13 +3959,13 @@
         <v>5</v>
       </c>
       <c r="AG31" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH31" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI31" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.25">
@@ -3979,20 +3979,20 @@
         <v>44270.431967592602</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="H32" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="I32" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -4010,50 +4010,50 @@
         <v>3</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U32" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y32" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z32" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA32" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB32" s="3"/>
       <c r="AC32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD32" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="AD32" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="AE32">
         <v>2</v>
@@ -4063,10 +4063,10 @@
       </c>
       <c r="AG32" s="3"/>
       <c r="AH32" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI32" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.25">
@@ -4080,20 +4080,20 @@
         <v>44270.434432870403</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="H33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="I33" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -4111,52 +4111,52 @@
         <v>5</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T33" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T33" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="U33" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V33" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W33" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X33" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y33" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z33" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA33" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC33" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="AC33" s="3" t="s">
+      <c r="AD33" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="AD33" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="AE33">
         <v>3</v>
@@ -4166,10 +4166,10 @@
       </c>
       <c r="AG33" s="3"/>
       <c r="AH33" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI33" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.25">
@@ -4183,20 +4183,20 @@
         <v>44270.435393518499</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="H34" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="I34" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -4214,47 +4214,47 @@
         <v>4</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U34" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X34" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y34" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z34" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA34" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB34" s="3"/>
       <c r="AC34" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD34" s="3"/>
       <c r="AE34">
@@ -4265,10 +4265,10 @@
       </c>
       <c r="AG34" s="3"/>
       <c r="AH34" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI34" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.25">
@@ -4282,20 +4282,20 @@
         <v>44270.575868055603</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="H35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="I35" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J35">
         <v>4</v>
@@ -4313,47 +4313,47 @@
         <v>1</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T35" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="R35" s="3" t="s">
+      <c r="U35" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W35" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="T35" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U35" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="V35" s="3" t="s">
+      <c r="X35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y35" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="X35" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y35" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="Z35" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA35" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB35" s="3"/>
       <c r="AC35" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD35" s="3"/>
       <c r="AE35">
@@ -4364,10 +4364,10 @@
       </c>
       <c r="AG35" s="3"/>
       <c r="AH35" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI35" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
